--- a/Ehospital/src/main/resources/TestData/registration.xlsx
+++ b/Ehospital/src/main/resources/TestData/registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="11370" windowHeight="4320"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="11370" windowHeight="5040"/>
   </bookViews>
   <sheets>
     <sheet name="PatientRegistration" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Loyalty card no</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>As@gmail.com</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -443,28 +446,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="8" width="19" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="16.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" spans="1:14" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -505,7 +508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -522,10 +525,10 @@
         <v>19</v>
       </c>
       <c r="F2">
-        <v>92118066</v>
+        <v>1235766</v>
       </c>
       <c r="G2">
-        <v>98610107</v>
+        <v>1209577</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
@@ -534,16 +537,19 @@
         <v>123456</v>
       </c>
       <c r="J2">
-        <v>7778776655</v>
+        <v>787976655</v>
       </c>
       <c r="K2">
-        <v>78777797</v>
+        <v>787879797</v>
       </c>
       <c r="L2" t="s">
         <v>6</v>
       </c>
       <c r="M2" t="s">
         <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
